--- a/Burundi data/data-filtered.xlsx
+++ b/Burundi data/data-filtered.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sabrina\Documents\GitHub\IRP-framework\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Milena/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D647765A-6F1A-426B-BA5F-DB8B9D146668}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860C2DF2-3553-E44B-92D8-618B590CCB99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="772" yWindow="1470" windowWidth="21608" windowHeight="10515" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="18440" windowHeight="15300" activeTab="2" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Schools" sheetId="1" r:id="rId1"/>
@@ -343,7 +343,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,23 +441,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -480,8 +492,44 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -493,6 +541,7 @@
           <color indexed="64"/>
         </bottom>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -512,7 +561,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -526,6 +575,7 @@
           <color indexed="64"/>
         </bottom>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -545,7 +595,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -559,6 +609,7 @@
           <color indexed="64"/>
         </bottom>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -578,7 +629,7 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -592,6 +643,7 @@
           <color indexed="64"/>
         </bottom>
       </border>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -624,6 +676,376 @@
           <color indexed="64"/>
         </bottom>
       </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <border outline="0">
@@ -642,392 +1064,11 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
       </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1043,7 +1084,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0AFBE7F-EE6B-43D3-AC29-0F1EA5EDD28B}" name="Tabelle1" displayName="Tabelle1" ref="A1:K16" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0AFBE7F-EE6B-43D3-AC29-0F1EA5EDD28B}" name="Tabelle1" displayName="Tabelle1" ref="A1:K16" totalsRowShown="0" headerRowDxfId="16" dataDxfId="17">
   <autoFilter ref="A1:K16" xr:uid="{92D50160-D1EB-4CE0-BC5E-AD10E29A0DA1}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{E5C5CD31-DB14-4BCA-9F11-3AA7A7551D2B}" name="Name_ID" dataDxfId="28"/>
@@ -1063,7 +1104,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{806E747E-CCA2-4A06-99C5-B543826C2E17}" name="Tabelle2" displayName="Tabelle2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{806E747E-CCA2-4A06-99C5-B543826C2E17}" name="Tabelle2" displayName="Tabelle2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
   <autoFilter ref="A1:G4" xr:uid="{864CDD6B-12DB-4E16-9534-F378F26389A1}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{412BEF91-95C9-4F97-AB74-BDA5528E1CB3}" name="Name" dataDxfId="15"/>
@@ -1079,14 +1120,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C88B342E-860D-4CF9-9409-9BF05B92DC07}" name="Tabelle35" displayName="Tabelle35" ref="A1:E28" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C88B342E-860D-4CF9-9409-9BF05B92DC07}" name="Tabelle35" displayName="Tabelle35" ref="A1:E28" totalsRowShown="0" headerRowDxfId="0" dataDxfId="6" headerRowBorderDxfId="30" tableBorderDxfId="29">
   <autoFilter ref="A1:E28" xr:uid="{140EAF9C-EBEB-4D6E-AEE7-0C012A648023}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{08A0981D-418C-4F7D-91CF-9CE660861A78}" name="Warehouse" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{C734B396-0019-4F10-9D39-4B9C17A0C025}" name="Plate Nr" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{B2ECE29D-B197-48F8-ACC0-D09288F3CD21}" name="Make" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{9A05CAC1-95C8-4D47-8F85-9866F7615220}" name="Model" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{2110263D-43E8-4495-99BB-86FD4A69533A}" name="Capacity in MT" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{08A0981D-418C-4F7D-91CF-9CE660861A78}" name="Warehouse" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{C734B396-0019-4F10-9D39-4B9C17A0C025}" name="Plate Nr" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{B2ECE29D-B197-48F8-ACC0-D09288F3CD21}" name="Make" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{9A05CAC1-95C8-4D47-8F85-9866F7615220}" name="Model" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{2110263D-43E8-4495-99BB-86FD4A69533A}" name="Capacity in MT" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1391,21 +1432,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65252ADD-2539-421B-8440-8530B4AE7D99}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.53125" style="1"/>
-    <col min="2" max="2" width="25.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.53125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.1328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27.796875" style="1" customWidth="1"/>
-    <col min="6" max="7" width="11.53125" style="1"/>
+    <col min="1" max="1" width="11.5" style="2"/>
+    <col min="2" max="2" width="25.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" style="2" customWidth="1"/>
+    <col min="6" max="7" width="11.5" style="2"/>
+    <col min="8" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1440,532 +1482,571 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>409</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>1.2454050000000001</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>8.1800000000000012E-2</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" s="2">
         <v>0.40900000000000003</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <v>-3.3243680000000002</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="2">
         <v>29.455860000000001</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="2">
         <v>1.99</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I2" s="2">
         <v>0.41000000000000003</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="2">
         <v>1.18</v>
       </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>556</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>1.849812</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>0.11120000000000001</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="2">
         <v>0.55600000000000005</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>-2.8610000000000002</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>29.686</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3" s="2">
         <v>2.71</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="2">
         <v>1.2</v>
       </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>664</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>2.0218799999999999</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>0.1328</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="2">
         <v>0.66400000000000003</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>-3.4071859999999998</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>29.390370000000001</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="2">
         <v>3.7</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="2">
         <v>0.67</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4" s="2">
         <v>1.5</v>
       </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="K4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="2">
         <v>866</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="2">
         <v>2.5950000000000002</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>0.17320000000000002</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" s="2">
         <v>0.8660000000000001</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>-3.5404490000000002</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="2">
         <v>29.852342</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5" s="2">
         <v>3.84</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5" s="2">
         <v>0.87</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J5" s="2">
         <v>1.97</v>
       </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="2">
         <v>635</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="2">
         <v>1.933575</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>0.127</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>0.63500000000000001</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>-3.5886499999999999</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="2">
         <v>29.35942</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6" s="2">
         <v>3.81</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I6" s="2">
         <v>0.64</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J6" s="2">
         <v>1.76</v>
       </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="2">
         <v>1168</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="2">
         <v>4.8400000000000007</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>0.23360000000000003</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="2">
         <v>1.1680000000000001</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>-2.8280959999999999</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="2">
         <v>30.127786</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7" s="2">
         <v>6.73</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>1.17</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J7" s="2">
         <v>1.7</v>
       </c>
-      <c r="K7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="2">
         <v>590</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="2">
         <v>1.843</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>0.11800000000000001</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="2">
         <v>0.59000000000000008</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>-3.1234920000000002</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="2">
         <v>29.34451</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8" s="2">
         <v>2.46</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>0.59</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="2">
         <v>1.33</v>
       </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="2">
         <v>847</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="2">
         <v>1.2709999999999999</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>0.16940000000000002</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="2">
         <v>0.84700000000000009</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>-3.7038009999999999</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="2">
         <v>29.834140999999999</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H9" s="2">
         <v>4.83</v>
       </c>
-      <c r="I9" s="1">
+      <c r="I9" s="2">
         <v>0.85</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J9" s="2">
         <v>1.8</v>
       </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <v>848</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="2">
         <v>2.7759999999999998</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>0.16960000000000003</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="2">
         <v>0.84800000000000009</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>-3.5700080000000001</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="2">
         <v>29.841771999999999</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H10" s="2">
         <v>4.47</v>
       </c>
-      <c r="I10" s="1">
+      <c r="I10" s="2">
         <v>0.85</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="2">
         <v>1.1100000000000001</v>
       </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="2">
         <v>708</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="2">
         <v>2.1558600000000001</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="2">
         <v>0.1416</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="2">
         <v>0.70799999999999996</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>-3.5510470000000001</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="2">
         <v>29.378411</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="2">
         <v>3.05</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="2">
         <v>0.71</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="2">
         <v>1.28</v>
       </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="2">
         <v>903</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="2">
         <v>3.6209999999999996</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>0.18060000000000004</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="2">
         <v>0.90300000000000025</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>-3.2078739999999999</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="2">
         <v>29.872033999999999</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H12" s="2">
         <v>4.6100000000000003</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12" s="2">
         <v>0.91</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="2">
         <v>1.39</v>
       </c>
-      <c r="K12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="2">
         <v>635</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="2">
         <v>0.95299999999999996</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D13" s="2">
         <v>0.127</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" s="2">
         <v>0.63500000000000001</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>-3.8171219999999999</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="2">
         <v>29.923649000000001</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H13" s="2">
         <v>3.47</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13" s="2">
         <v>0.64</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J13" s="2">
         <v>1.1200000000000001</v>
       </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A14" s="1" t="s">
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="2">
         <v>1160</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="2">
         <v>1.74</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D14" s="2">
         <v>0.23200000000000001</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" s="2">
         <v>1.1600000000000001</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>-3.4605839999999999</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="2">
         <v>29.491987000000002</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="2">
         <v>6.49</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14" s="2">
         <v>1.1599999999999999</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="2">
         <v>1.22</v>
       </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="2">
         <v>548</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="2">
         <v>1.66866</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D15" s="2">
         <v>0.10960000000000002</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" s="2">
         <v>0.54800000000000004</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>-3.703722</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="2">
         <v>29.918804000000002</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H15" s="2">
         <v>2.48</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="J15" s="1">
+      <c r="J15" s="2">
         <v>0.69</v>
       </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="2">
         <v>551</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="2">
         <v>0.82699999999999996</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D16" s="2">
         <v>0.11020000000000001</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" s="2">
         <v>0.55100000000000005</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>-3.7073900000000002</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="2">
         <v>29.866121</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="2">
         <v>2.86</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="2">
         <v>0.56000000000000005</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="2">
         <v>0.92</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <dataValidations count="11">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the storage costs per MT." promptTitle="Storage Costs" prompt="What are the average costs to store 1 MT of food in the school?" sqref="K2:K16" xr:uid="{50370CB7-745E-E14E-A060-AAA802BDD77C}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the initial inventory level of the school." promptTitle="Initial inventory level" prompt="Please enter the initial inventory level in MT at the school, i.e. the inventory level at the time where the program shall start to suggest routes." sqref="J2:J16" xr:uid="{075FE853-4C1C-A740-BC8E-51F309F4B7C2}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number here in order to determine the lower treshold of the inventory." promptTitle="Lower bound on inventory " prompt="How much food do you want to be stored at that school permanently, i.e. enter the lower treshold on the inventory at that school_x000a_(in MT)" sqref="I2:I16" xr:uid="{5C46D4EC-0BAD-7048-9B59-5AA347F968B6}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input!" error="You are expected to enter a non-negative number to determine the storage capacity available at that school." promptTitle="Storage Capacity of school" prompt="how much storage capacity does the school have_x000a_(in MT)?" sqref="H2:H16" xr:uid="{E305D09B-2426-4E40-B087-EC1907E1B9D0}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input!" error="You are expected to enter a number between -180 and 180 to determine the degree of longitude where the school is located." promptTitle="Longitude of school location" prompt="At which longitude is the school located?" sqref="G2:G16" xr:uid="{C3B6B442-22D7-5840-93E3-61575C547E85}">
+      <formula1>-180</formula1>
+      <formula2>180</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Input" error="You are expected to enter a number between -90 and 90 to determine the location (latitude) of the school." promptTitle="Latitude of school location" prompt="At which latitude is the school located?_x000a_(-90° to 90°)" sqref="F2:F16" xr:uid="{575A8000-5C44-314B-9143-4D5E37E0728C}">
+      <formula1>-90</formula1>
+      <formula2>90</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="You can only enter a non-negative number here." promptTitle="Weekly consumption in MT" prompt="how much food is consumed at the school each week?" sqref="E2:E16" xr:uid="{038A186E-766B-CE4E-8B7D-074C8229304B}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="You can only enter a non-negative number here." promptTitle="Daily consumption in MT" prompt="how much food is consumed at the school each day?" sqref="D2:D16" xr:uid="{68F88F48-2E7B-F84A-9FD7-57DAE027798A}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" promptTitle="Sum of Commodities" sqref="C2:C16" xr:uid="{08972ED4-8208-634D-8A73-A06CAD186742}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Error: " error="This field takes only integer numbers." promptTitle="Number of Beneficiaries" prompt="Please enter here, how many beneficiaries are at the school." sqref="B2:B16" xr:uid="{7866A6CE-FBF9-BC44-8E5F-2365537CF63C}">
+      <formula1>0</formula1>
+      <formula2>100000</formula2>
+    </dataValidation>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Non-unique Name" error="The entered name is already used for another entry. Please choose a unique name!" promptTitle="School Name or School ID" prompt="Enter a unique key of identification of the schools (e.g. name)" sqref="A2:A16" xr:uid="{51637C99-1E05-864C-97AB-8C4AEF9D4996}">
+      <formula1>COUNTIF($A:$A,A1)=1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1980,108 +2061,136 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.796875" customWidth="1"/>
+    <col min="1" max="1" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="10.83203125" style="3"/>
+    <col min="7" max="7" width="11.83203125" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" s="4" customFormat="1">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>-3.36</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="2">
         <v>29.352</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="2">
         <v>11917</v>
       </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2">
         <v>300</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="2">
         <v>-2.911</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="2">
         <v>29.821000000000002</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>11917</v>
       </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2">
         <v>200</v>
       </c>
-      <c r="G3" s="1">
+      <c r="G3" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="2">
         <v>-3.4279999999999999</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="2">
         <v>29.928000000000001</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>11917</v>
       </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
         <v>300</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="2">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <dataValidations count="7">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Input" error="You are expected to enter a number between -90 and 90 to determine the location (latitude) of the warehouse." promptTitle="Latitude of warehouse location" prompt="At which latitude is the warehouse located?_x000a_(-90° to 90°)" sqref="B2:B4" xr:uid="{ED718F55-E61E-C143-9266-D422B867F4A8}">
+      <formula1>-90</formula1>
+      <formula2>90</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input!" error="You are expected to enter a number between -180 and 180 to determine the degree of longitude where the warehouse is located." promptTitle="Longitude of warehouse location" prompt="At which longitude is the warehouse located?" sqref="C2:C4" xr:uid="{090BDAF7-5912-9C46-BD7D-1CC45A4F39A8}">
+      <formula1>-180</formula1>
+      <formula2>180</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input!" error="You are expected to enter a non-negative number to determine the storage capacity available at that warehouse." promptTitle="Storage Capacity of warehouse" prompt="how much storage capacity does the warehouse have_x000a_(in MT)?" sqref="D2:D4" xr:uid="{04D83F3B-D8F1-C64C-90EC-1FA784C6064C}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number here in order to determine the lower treshold of the inventory." promptTitle="Lower bound on inventory " prompt="How much food do you want to be stored at that warehouse permanently, i.e. enter the lower treshold on the inventory at that warehouse_x000a_(in MT)" sqref="E2:E4" xr:uid="{DB929CD9-511E-1442-A0BF-6DD1C77CDE20}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the initial inventory level of the warehouse." promptTitle="Initial inventory level" prompt="Please enter the initial inventory level in MT at the warehouse, i.e. the inventory level at the time where the program shall start to suggest routes." sqref="F2:F4" xr:uid="{A31928C9-5473-EB4A-994B-9130885AA030}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the fixed costs." promptTitle="Fixed Costs" prompt="What are the fixed costs to run the warehouse?" sqref="G2:G4" xr:uid="{94E9068B-7D17-C64E-B49F-C2217074FA3C}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Non-unique Name" error="The entered name is already used for another entry. Please choose a unique name!" promptTitle="Name of warehouse" prompt="Enter a unique key of identification of the warehouses (e.g. name)" sqref="A2:A4" xr:uid="{CE065D58-C344-D448-B7CB-D260B85B2240}">
+      <formula1>COUNTIF($A:$A,A1)=1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -2093,489 +2202,501 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67700975-B69D-4F23-A553-6F8EE09FC47B}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" s="8" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" s="8" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7" s="9">
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8">
         <v>3.5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" s="8" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="8">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" s="8" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" s="8" t="s">
+    <row r="12" spans="1:5">
+      <c r="A12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="8">
         <v>4.2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:5">
+      <c r="A13" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13" s="8">
         <v>4.2</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:5">
+      <c r="A14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
         <v>4.2</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="D15" s="3">
+        <v>0</v>
+      </c>
+      <c r="E15" s="8">
         <v>4.2</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="9">
+      <c r="D16" s="3">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="9">
+      <c r="D17" s="3">
+        <v>0</v>
+      </c>
+      <c r="E17" s="8">
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:5">
+      <c r="A22" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:5">
+      <c r="A23" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:5">
+      <c r="A24" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25" s="9">
+      <c r="D25" s="3">
+        <v>0</v>
+      </c>
+      <c r="E25" s="8">
         <v>3.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A26" s="8" t="s">
+    <row r="26" spans="1:5">
+      <c r="A26" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" s="9">
+      <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="8">
         <v>3.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A27" s="8" t="s">
+    <row r="27" spans="1:5">
+      <c r="A27" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>1.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A28" s="8" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" s="9">
+      <c r="D28" s="3">
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <dataValidations count="4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Model" sqref="D2:D28" xr:uid="{88BD21A3-7C68-5540-9BFE-F91D20CF7654}"/>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the capacity of the vehicle." promptTitle="Capacity of vehicle" prompt="What is the capacity of the vehicle in MT?" sqref="E2:E28" xr:uid="{CBDAA90F-52B7-7546-8591-2CB493AB5875}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Make " prompt="Of which make is the car?" sqref="C2:C28" xr:uid="{E3C321C9-D465-1B44-87E5-71DD7CBE8B1D}"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Plate number" prompt="Please enter the plate number of the vehicle here." sqref="B2:B28" xr:uid="{BF157A7D-CE6D-184F-ADD2-BDC2B965803B}"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/Burundi data/data-filtered.xlsx
+++ b/Burundi data/data-filtered.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Milena/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860C2DF2-3553-E44B-92D8-618B590CCB99}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317C17DA-4D93-7A4F-B8D6-F8A62AF0B986}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="18440" windowHeight="15300" activeTab="2" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
+    <workbookView xWindow="13360" yWindow="460" windowWidth="15440" windowHeight="16120" activeTab="1" xr2:uid="{5975349C-58A3-4B5B-8FE6-1441333428CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Schools" sheetId="1" r:id="rId1"/>
@@ -492,6 +492,216 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -513,6 +723,36 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -523,24 +763,11 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -555,26 +782,41 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
@@ -589,31 +831,31 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -623,261 +865,12 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1048,27 +1041,34 @@
       <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="0" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <protection locked="1" hidden="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1084,7 +1084,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0AFBE7F-EE6B-43D3-AC29-0F1EA5EDD28B}" name="Tabelle1" displayName="Tabelle1" ref="A1:K16" totalsRowShown="0" headerRowDxfId="16" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A0AFBE7F-EE6B-43D3-AC29-0F1EA5EDD28B}" name="Tabelle1" displayName="Tabelle1" ref="A1:K16" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:K16" xr:uid="{92D50160-D1EB-4CE0-BC5E-AD10E29A0DA1}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{E5C5CD31-DB14-4BCA-9F11-3AA7A7551D2B}" name="Name_ID" dataDxfId="28"/>
@@ -1104,7 +1104,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{806E747E-CCA2-4A06-99C5-B543826C2E17}" name="Tabelle2" displayName="Tabelle2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="7" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{806E747E-CCA2-4A06-99C5-B543826C2E17}" name="Tabelle2" displayName="Tabelle2" ref="A1:G4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:G4" xr:uid="{864CDD6B-12DB-4E16-9534-F378F26389A1}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{412BEF91-95C9-4F97-AB74-BDA5528E1CB3}" name="Name" dataDxfId="15"/>
@@ -1120,14 +1120,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C88B342E-860D-4CF9-9409-9BF05B92DC07}" name="Tabelle35" displayName="Tabelle35" ref="A1:E28" totalsRowShown="0" headerRowDxfId="0" dataDxfId="6" headerRowBorderDxfId="30" tableBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C88B342E-860D-4CF9-9409-9BF05B92DC07}" name="Tabelle35" displayName="Tabelle35" ref="A1:E28" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5">
   <autoFilter ref="A1:E28" xr:uid="{140EAF9C-EBEB-4D6E-AEE7-0C012A648023}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{08A0981D-418C-4F7D-91CF-9CE660861A78}" name="Warehouse" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{C734B396-0019-4F10-9D39-4B9C17A0C025}" name="Plate Nr" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{B2ECE29D-B197-48F8-ACC0-D09288F3CD21}" name="Make" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{9A05CAC1-95C8-4D47-8F85-9866F7615220}" name="Model" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{2110263D-43E8-4495-99BB-86FD4A69533A}" name="Capacity in MT" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{08A0981D-418C-4F7D-91CF-9CE660861A78}" name="Warehouse" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{C734B396-0019-4F10-9D39-4B9C17A0C025}" name="Plate Nr" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{B2ECE29D-B197-48F8-ACC0-D09288F3CD21}" name="Make" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{9A05CAC1-95C8-4D47-8F85-9866F7615220}" name="Model" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{2110263D-43E8-4495-99BB-86FD4A69533A}" name="Capacity in MT" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1433,7 +1433,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2030,21 +2030,21 @@
       <formula1>-90</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="You can only enter a non-negative number here." promptTitle="Weekly consumption in MT" prompt="how much food is consumed at the school each week?" sqref="E2:E16" xr:uid="{038A186E-766B-CE4E-8B7D-074C8229304B}">
-      <formula1>0</formula1>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Non-unique Name" error="The entered name is already used for another entry. Please choose a unique name!" promptTitle="School Name or School ID" prompt="Enter a unique key of identification of the schools (e.g. name)" sqref="A2:A16" xr:uid="{51637C99-1E05-864C-97AB-8C4AEF9D4996}">
+      <formula1>COUNTIF($A:$A,A1)=1</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="You can only enter a non-negative number here." promptTitle="Daily consumption in MT" prompt="how much food is consumed at the school each day?" sqref="D2:D16" xr:uid="{68F88F48-2E7B-F84A-9FD7-57DAE027798A}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" promptTitle="Sum of Commodities" sqref="C2:C16" xr:uid="{08972ED4-8208-634D-8A73-A06CAD186742}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Error: " error="This field takes only integer numbers." promptTitle="Number of Beneficiaries" prompt="Please enter here, how many beneficiaries are at the school." sqref="B2:B16" xr:uid="{7866A6CE-FBF9-BC44-8E5F-2365537CF63C}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Error: " error="This field takes only integer numbers." promptTitle="Number of Beneficiaries" prompt="Please enter here, how many beneficiaries are at the school._x000a_(Optional)" sqref="B2:B16" xr:uid="{9C5BE8C3-C01D-B640-82C4-54FF73C7FC67}">
       <formula1>0</formula1>
       <formula2>100000</formula2>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Non-unique Name" error="The entered name is already used for another entry. Please choose a unique name!" promptTitle="School Name or School ID" prompt="Enter a unique key of identification of the schools (e.g. name)" sqref="A2:A16" xr:uid="{51637C99-1E05-864C-97AB-8C4AEF9D4996}">
-      <formula1>COUNTIF($A:$A,A1)=1</formula1>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" promptTitle="Sum of Commodities" prompt="(Optional)" sqref="C2:C16" xr:uid="{BDB012D9-642C-9043-8188-016FDA208E06}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="You can only enter a non-negative number here." promptTitle="Daily consumption in MT" prompt="how much food is consumed at the school each day?_x000a_(Optional)_x000a_" sqref="D2:D16" xr:uid="{B88A0DBE-F4EF-4743-8930-D76A84A4117F}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Error" error="You can only enter a non-negative number here." promptTitle="Weekly consumption in MT" prompt="how much food is consumed at the school each week?_x000a_(MANDATORY)" sqref="E2:E16" xr:uid="{628A9638-BDE2-D740-8BD6-A992835D5ACD}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2060,8 +2060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5307C4E-D51E-4E16-960B-CB790613AD8F}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2166,28 +2166,51 @@
     </row>
   </sheetData>
   <sheetProtection sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <dataValidations count="7">
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Input" error="You are expected to enter a number between -90 and 90 to determine the location (latitude) of the warehouse." promptTitle="Latitude of warehouse location" prompt="At which latitude is the warehouse located?_x000a_(-90° to 90°)" sqref="B2:B4" xr:uid="{ED718F55-E61E-C143-9266-D422B867F4A8}">
+  <dataValidations count="14">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Input" error="You are expected to enter a number between -90 and 90 to determine the location (latitude) of the warehouse." promptTitle="Latitude of warehouse location" prompt="At which latitude is the warehouse located?_x000a_(-90° to 90°)" sqref="B3:B4" xr:uid="{ED718F55-E61E-C143-9266-D422B867F4A8}">
       <formula1>-90</formula1>
       <formula2>90</formula2>
     </dataValidation>
-    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input!" error="You are expected to enter a number between -180 and 180 to determine the degree of longitude where the warehouse is located." promptTitle="Longitude of warehouse location" prompt="At which longitude is the warehouse located?" sqref="C2:C4" xr:uid="{090BDAF7-5912-9C46-BD7D-1CC45A4F39A8}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input!" error="You are expected to enter a number between -180 and 180 to determine the degree of longitude where the warehouse is located." promptTitle="Longitude of warehouse location" prompt="At which longitude is the warehouse located?" sqref="C3:C4" xr:uid="{090BDAF7-5912-9C46-BD7D-1CC45A4F39A8}">
       <formula1>-180</formula1>
       <formula2>180</formula2>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input!" error="You are expected to enter a non-negative number to determine the storage capacity available at that warehouse." promptTitle="Storage Capacity of warehouse" prompt="how much storage capacity does the warehouse have_x000a_(in MT)?" sqref="D2:D4" xr:uid="{04D83F3B-D8F1-C64C-90EC-1FA784C6064C}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input!" error="You are expected to enter a non-negative number to determine the storage capacity available at that warehouse." promptTitle="Storage Capacity of warehouse" prompt="how much storage capacity does the warehouse have_x000a_(in MT)?" sqref="D3:D4" xr:uid="{04D83F3B-D8F1-C64C-90EC-1FA784C6064C}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number here in order to determine the lower treshold of the inventory." promptTitle="Lower bound on inventory " prompt="How much food do you want to be stored at that warehouse permanently, i.e. enter the lower treshold on the inventory at that warehouse_x000a_(in MT)" sqref="E2:E4" xr:uid="{DB929CD9-511E-1442-A0BF-6DD1C77CDE20}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number here in order to determine the lower treshold of the inventory." promptTitle="Lower bound on inventory " prompt="How much food do you want to be stored at that warehouse permanently, i.e. enter the lower treshold on the inventory at that warehouse_x000a_(in MT)" sqref="E3:E4" xr:uid="{DB929CD9-511E-1442-A0BF-6DD1C77CDE20}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the initial inventory level of the warehouse." promptTitle="Initial inventory level" prompt="Please enter the initial inventory level in MT at the warehouse, i.e. the inventory level at the time where the program shall start to suggest routes." sqref="F2:F4" xr:uid="{A31928C9-5473-EB4A-994B-9130885AA030}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the initial inventory level of the warehouse." promptTitle="Initial inventory level" prompt="Please enter the initial inventory level in MT at the warehouse, i.e. the inventory level at the time where the program shall start to suggest routes." sqref="F3:F4" xr:uid="{A31928C9-5473-EB4A-994B-9130885AA030}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the fixed costs." promptTitle="Fixed Costs" prompt="What are the fixed costs to run the warehouse?" sqref="G2:G4" xr:uid="{94E9068B-7D17-C64E-B49F-C2217074FA3C}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the fixed costs." promptTitle="Fixed Costs" prompt="What are the fixed costs to run the warehouse?" sqref="G3:G4" xr:uid="{94E9068B-7D17-C64E-B49F-C2217074FA3C}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Non-unique Name" error="The entered name is already used for another entry. Please choose a unique name!" promptTitle="Name of warehouse" prompt="Enter a unique key of identification of the warehouses (e.g. name)" sqref="A2:A4" xr:uid="{CE065D58-C344-D448-B7CB-D260B85B2240}">
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Non-unique Name" error="The entered name is already used for another entry. Please choose a unique name!" promptTitle="Name of warehouse" prompt="Enter a unique key of identification of the warehouses (e.g. name)" sqref="A3:A4" xr:uid="{CE065D58-C344-D448-B7CB-D260B85B2240}">
+      <formula1>COUNTIF($A:$A,A2)=1</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the fixed costs." promptTitle="Fixed Costs" prompt="What are the fixed costs to run the central warehouse?" sqref="G2" xr:uid="{B7617282-DB56-9444-8A8A-2F4788B3229D}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number to determine the initial inventory level of the central warehouse." promptTitle="Initial inventory level" prompt="Please enter the initial inventory level in MT at the central warehouse, i.e. the inventory level at the time where the program shall start to suggest routes." sqref="F2" xr:uid="{1348054A-496D-3549-B565-3B255ACA238B}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Input" error="You are expected to enter a non-negative number here in order to determine the lower treshold of the inventory." promptTitle="Lower bound on inventory " prompt="How much food do you want to be stored at the central warehouse permanently, i.e. enter the lower treshold on the inventory at the central warehouse_x000a_(in MT)" sqref="E2" xr:uid="{CEC20D6C-C4CE-D44D-9CE5-3DC916A1059F}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input!" error="You are expected to enter a non-negative number to determine the storage capacity available at the central warehouse." promptTitle="Storage Capacity of central wh" prompt="how much storage capacity does the central warehouse have_x000a_(in MT)?" sqref="D2" xr:uid="{E0CD2397-16DD-E241-9665-69123CC7A732}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid input!" error="You are expected to enter a number between -180 and 180 to determine the degree of longitude where the central warehouse is located." promptTitle="Longitude of central warehouse" prompt="At which longitude is the central warehouse located?" sqref="C2" xr:uid="{ED45263B-57B7-4B4A-B382-5BAF838CBFAD}">
+      <formula1>-180</formula1>
+      <formula2>180</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" errorTitle="Wrong Input" error="You are expected to enter a number between -90 and 90 to determine the location (latitude) of the central warehouse." promptTitle="Latitude of central warehouse " prompt="At which latitude is the central warehouse located?_x000a_(-90° to 90°)" sqref="B2" xr:uid="{A7AFF542-1211-AA43-BE06-F1A29FAA0E0F}">
+      <formula1>-90</formula1>
+      <formula2>90</formula2>
+    </dataValidation>
+    <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" errorTitle="Error: Non-unique Name" error="The entered name is already used for another entry. Please choose a unique name!" promptTitle="Name of central warehouse" prompt="Enter a unique key of identification of the central warehouses (e.g. name)" sqref="A2" xr:uid="{82488524-FA86-754A-AED2-59A66754E45F}">
       <formula1>COUNTIF($A:$A,A1)=1</formula1>
     </dataValidation>
   </dataValidations>
@@ -2202,8 +2225,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67700975-B69D-4F23-A553-6F8EE09FC47B}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
